--- a/api/functions/Excel/newfiile.xlsx
+++ b/api/functions/Excel/newfiile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="670" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="670" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Platschef, trädbesiktare" sheetId="1" state="visible" r:id="rId1"/>
@@ -469,66 +469,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -537,42 +488,91 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1042,21 +1042,21 @@
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="17.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="17.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="64" min="1" max="1"/>
-    <col width="7.85546875" customWidth="1" style="64" min="2" max="2"/>
-    <col width="12" customWidth="1" style="64" min="3" max="3"/>
-    <col hidden="1" width="1.140625" customWidth="1" style="64" min="4" max="4"/>
-    <col width="7.7109375" customWidth="1" style="64" min="5" max="5"/>
-    <col width="8.7109375" customWidth="1" style="64" min="6" max="6"/>
-    <col width="6.7109375" customWidth="1" style="64" min="7" max="7"/>
-    <col width="7.7109375" customWidth="1" style="64" min="8" max="8"/>
-    <col width="7.5703125" customWidth="1" style="64" min="9" max="9"/>
-    <col width="8.42578125" customWidth="1" style="64" min="10" max="10"/>
-    <col width="8.85546875" customWidth="1" style="64" min="11" max="11"/>
-    <col width="9.85546875" customWidth="1" style="64" min="12" max="12"/>
-    <col width="9" customWidth="1" style="64" min="13" max="13"/>
+    <col width="7.26953125" customWidth="1" style="59" min="1" max="1"/>
+    <col width="7.81640625" customWidth="1" style="59" min="2" max="2"/>
+    <col width="12" customWidth="1" style="59" min="3" max="3"/>
+    <col hidden="1" width="1.1796875" customWidth="1" style="59" min="4" max="4"/>
+    <col width="7.7265625" customWidth="1" style="59" min="5" max="5"/>
+    <col width="8.7265625" customWidth="1" style="59" min="6" max="6"/>
+    <col width="6.7265625" customWidth="1" style="59" min="7" max="7"/>
+    <col width="7.7265625" customWidth="1" style="59" min="8" max="8"/>
+    <col width="7.54296875" customWidth="1" style="59" min="9" max="9"/>
+    <col width="8.453125" customWidth="1" style="59" min="10" max="10"/>
+    <col width="8.81640625" customWidth="1" style="59" min="11" max="11"/>
+    <col width="9.81640625" customWidth="1" style="59" min="12" max="12"/>
+    <col width="9" customWidth="1" style="59" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1452,7 +1452,7 @@
       <c r="L18" s="93" t="n"/>
       <c r="M18" s="94" t="n"/>
     </row>
-    <row r="19" ht="34.5" customHeight="1" s="64">
+    <row r="19" ht="21.5" customHeight="1" s="59">
       <c r="A19" s="106" t="inlineStr">
         <is>
           <t>Namn Personal / Förare</t>
@@ -2002,32 +2002,31 @@
   <mergeCells count="72">
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="G45:M45"/>
     <mergeCell ref="D37:M37"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A22:D22"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="A14:B15"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="G44:M44"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C6:K7"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="C6:K7"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="M28:M36"/>
@@ -2036,42 +2035,43 @@
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="A35:C35"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="C4:K5"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C4:K5"/>
-    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="C10:K11"/>
     <mergeCell ref="C16:K17"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A34:C34"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="C12:K13"/>
     <mergeCell ref="A16:B17"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A6:B7"/>
     <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A1:C3"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A38:M43"/>
     <mergeCell ref="C8:K9"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2087,27 +2087,27 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="L2" sqref="L2:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="17.26953125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col width="7.28515625" customWidth="1" style="64" min="1" max="1"/>
-    <col width="7.85546875" customWidth="1" style="64" min="2" max="2"/>
-    <col width="12" customWidth="1" style="64" min="3" max="3"/>
-    <col hidden="1" width="1.140625" customWidth="1" style="64" min="4" max="4"/>
-    <col width="7.7109375" customWidth="1" style="64" min="5" max="5"/>
-    <col width="8.7109375" customWidth="1" style="64" min="6" max="6"/>
-    <col width="6.7109375" customWidth="1" style="64" min="7" max="7"/>
-    <col width="7.7109375" customWidth="1" style="64" min="8" max="8"/>
-    <col width="7.5703125" customWidth="1" style="64" min="9" max="9"/>
-    <col width="8.42578125" customWidth="1" style="64" min="10" max="10"/>
-    <col width="8.85546875" customWidth="1" style="64" min="11" max="11"/>
-    <col width="9.85546875" customWidth="1" style="64" min="12" max="12"/>
-    <col width="9" customWidth="1" style="64" min="13" max="13"/>
+    <col width="7.26953125" customWidth="1" style="59" min="1" max="1"/>
+    <col width="7.81640625" customWidth="1" style="59" min="2" max="2"/>
+    <col width="12" customWidth="1" style="59" min="3" max="3"/>
+    <col hidden="1" width="1.1796875" customWidth="1" style="59" min="4" max="4"/>
+    <col width="7.7265625" customWidth="1" style="59" min="5" max="5"/>
+    <col width="8.7265625" customWidth="1" style="59" min="6" max="6"/>
+    <col width="6.7265625" customWidth="1" style="59" min="7" max="7"/>
+    <col width="7.7265625" customWidth="1" style="59" min="8" max="8"/>
+    <col width="7.54296875" customWidth="1" style="59" min="9" max="9"/>
+    <col width="8.453125" customWidth="1" style="59" min="10" max="10"/>
+    <col width="8.81640625" customWidth="1" style="59" min="11" max="11"/>
+    <col width="9.81640625" customWidth="1" style="59" min="12" max="12"/>
+    <col width="9" customWidth="1" style="59" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="64">
+    <row r="1" ht="18.75" customHeight="1" s="59">
       <c r="A1" s="89" t="inlineStr">
         <is>
           <t>TRAFIKVERKET</t>
@@ -2130,7 +2130,7 @@
       <c r="L1" s="93" t="n"/>
       <c r="M1" s="94" t="n"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="64">
+    <row r="2" ht="18.75" customHeight="1" s="59">
       <c r="A2" s="95" t="n"/>
       <c r="C2" s="96" t="n"/>
       <c r="D2" s="1" t="inlineStr">
@@ -2162,7 +2162,7 @@
       <c r="L2" s="5" t="n"/>
       <c r="M2" s="94" t="n"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="64">
+    <row r="3" ht="18.75" customHeight="1" s="59">
       <c r="A3" s="97" t="n"/>
       <c r="B3" s="98" t="n"/>
       <c r="C3" s="99" t="n"/>
@@ -2193,14 +2193,14 @@
       <c r="L3" s="101" t="n"/>
       <c r="M3" s="94" t="n"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" s="64">
+    <row r="4" ht="18.75" customHeight="1" s="59">
       <c r="A4" s="102" t="inlineStr">
         <is>
           <t>Måndag fastighet utfört arbete</t>
         </is>
       </c>
       <c r="B4" s="91" t="n"/>
-      <c r="C4" s="61" t="inlineStr">
+      <c r="C4" s="72" t="inlineStr">
         <is>
           <t>lilla edet rumpetorp 1:41</t>
         </is>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="M4" s="94" t="n"/>
     </row>
-    <row r="5" ht="18.75" customHeight="1" s="64">
+    <row r="5" ht="18.75" customHeight="1" s="59">
       <c r="A5" s="97" t="n"/>
       <c r="B5" s="99" t="n"/>
       <c r="C5" s="95" t="n"/>
@@ -2231,14 +2231,14 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="64">
+    <row r="6" ht="18.75" customHeight="1" s="59">
       <c r="A6" s="102" t="inlineStr">
         <is>
           <t>Tisdag fastighet utfört arbete</t>
         </is>
       </c>
       <c r="B6" s="91" t="n"/>
-      <c r="C6" s="61" t="inlineStr">
+      <c r="C6" s="72" t="inlineStr">
         <is>
           <t>lilla edet rumpetorp 1:41</t>
         </is>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="M6" s="94" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="64">
+    <row r="7" ht="18.75" customHeight="1" s="59">
       <c r="A7" s="97" t="n"/>
       <c r="B7" s="99" t="n"/>
       <c r="C7" s="95" t="n"/>
@@ -2269,14 +2269,14 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" s="64">
+    <row r="8" ht="18.75" customHeight="1" s="59">
       <c r="A8" s="102" t="inlineStr">
         <is>
           <t>Onsdag fastighet utfört arbete</t>
         </is>
       </c>
       <c r="B8" s="91" t="n"/>
-      <c r="C8" s="61" t="inlineStr">
+      <c r="C8" s="72" t="inlineStr">
         <is>
           <t>lilla edet rumpetorp 1:41</t>
         </is>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="M8" s="94" t="n"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1" s="64">
+    <row r="9" ht="18.75" customHeight="1" s="59">
       <c r="A9" s="97" t="n"/>
       <c r="B9" s="99" t="n"/>
       <c r="C9" s="95" t="n"/>
@@ -2307,14 +2307,14 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="64">
+    <row r="10" ht="18.75" customHeight="1" s="59">
       <c r="A10" s="102" t="inlineStr">
         <is>
           <t>Torsdag fastighet utfört arbete</t>
         </is>
       </c>
       <c r="B10" s="91" t="n"/>
-      <c r="C10" s="61" t="n"/>
+      <c r="C10" s="72" t="n"/>
       <c r="D10" s="90" t="n"/>
       <c r="E10" s="90" t="n"/>
       <c r="F10" s="90" t="n"/>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="M10" s="94" t="n"/>
     </row>
-    <row r="11" ht="18.75" customHeight="1" s="64">
+    <row r="11" ht="18.75" customHeight="1" s="59">
       <c r="A11" s="97" t="n"/>
       <c r="B11" s="99" t="n"/>
       <c r="C11" s="95" t="n"/>
@@ -2341,14 +2341,14 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" s="64">
+    <row r="12" ht="18.75" customHeight="1" s="59">
       <c r="A12" s="102" t="inlineStr">
         <is>
           <t>Fredag fastighet utfört arbete</t>
         </is>
       </c>
       <c r="B12" s="91" t="n"/>
-      <c r="C12" s="61" t="n"/>
+      <c r="C12" s="72" t="n"/>
       <c r="D12" s="90" t="n"/>
       <c r="E12" s="90" t="n"/>
       <c r="F12" s="90" t="n"/>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="M12" s="94" t="n"/>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="64">
+    <row r="13" ht="18.75" customHeight="1" s="59">
       <c r="A13" s="97" t="n"/>
       <c r="B13" s="99" t="n"/>
       <c r="C13" s="95" t="n"/>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="64">
+    <row r="14" ht="18.75" customHeight="1" s="59">
       <c r="A14" s="102" t="inlineStr">
         <is>
           <t>Lördag fastighetutfört arbete</t>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="M14" s="94" t="n"/>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="64">
+    <row r="15" ht="18.75" customHeight="1" s="59">
       <c r="A15" s="97" t="n"/>
       <c r="B15" s="99" t="n"/>
       <c r="C15" s="97" t="n"/>
@@ -2417,7 +2417,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="64">
+    <row r="16" ht="18.75" customHeight="1" s="59">
       <c r="A16" s="102" t="inlineStr">
         <is>
           <t>Söndag fastighet utfört arbete</t>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="M16" s="94" t="n"/>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="64">
+    <row r="17" ht="18.75" customHeight="1" s="59">
       <c r="A17" s="97" t="n"/>
       <c r="B17" s="99" t="n"/>
       <c r="C17" s="97" t="n"/>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.5" customHeight="1" s="59">
       <c r="A18" s="7" t="n"/>
       <c r="B18" s="93" t="n"/>
       <c r="C18" s="93" t="n"/>
@@ -2474,7 +2474,7 @@
       <c r="L18" s="93" t="n"/>
       <c r="M18" s="94" t="n"/>
     </row>
-    <row r="19" ht="22.5" customHeight="1" s="64">
+    <row r="19" ht="22.5" customHeight="1" s="59">
       <c r="A19" s="106" t="inlineStr">
         <is>
           <t>Namn Personal / Förare</t>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="14.5" customHeight="1" s="59">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2567,7 +2567,7 @@
         <v/>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="14.5" customHeight="1" s="59">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2599,15 +2599,13 @@
       <c r="K21" s="18" t="n">
         <v>0.5</v>
       </c>
-      <c r="L21" s="18" t="n">
-        <v>4</v>
-      </c>
+      <c r="L21" s="18" t="n"/>
       <c r="M21" s="121">
         <f>I21+J21+K21+L21</f>
         <v/>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="14.5" customHeight="1" s="59">
       <c r="A22" s="7" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2645,7 +2643,7 @@
         <v/>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="14.5" customHeight="1" s="59">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2669,19 +2667,15 @@
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="19" t="n"/>
-      <c r="J23" s="18" t="n">
-        <v>3</v>
-      </c>
+      <c r="J23" s="18" t="n"/>
       <c r="K23" s="18" t="n"/>
-      <c r="L23" s="18" t="n">
-        <v>2</v>
-      </c>
+      <c r="L23" s="18" t="n"/>
       <c r="M23" s="121">
         <f>I23+J23+K23+L23</f>
         <v/>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="14.5" customHeight="1" s="59">
       <c r="A24" s="7" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2713,7 +2707,7 @@
         <v/>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="14.5" customHeight="1" s="59">
       <c r="A25" s="122" t="n"/>
       <c r="B25" s="93" t="n"/>
       <c r="C25" s="94" t="n"/>
@@ -2735,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="14.5" customHeight="1" s="59">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="93" t="n"/>
       <c r="C26" s="93" t="n"/>
@@ -2757,7 +2751,7 @@
         <v/>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="14.5" customHeight="1" s="59">
       <c r="A27" s="108" t="n"/>
       <c r="B27" s="93" t="n"/>
       <c r="C27" s="93" t="n"/>
@@ -2794,7 +2788,7 @@
         <v/>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="14.5" customHeight="1" s="59">
       <c r="A28" s="12" t="inlineStr">
         <is>
           <t>Resor</t>
@@ -2833,7 +2827,7 @@
       </c>
       <c r="M28" s="6" t="n"/>
     </row>
-    <row r="29">
+    <row r="29" ht="14.5" customHeight="1" s="59">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Felix Myrheim </t>
@@ -2866,7 +2860,7 @@
       <c r="L29" s="26" t="n"/>
       <c r="M29" s="111" t="n"/>
     </row>
-    <row r="30">
+    <row r="30" ht="14.5" customHeight="1" s="59">
       <c r="A30" s="7" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2899,7 +2893,7 @@
       <c r="L30" s="26" t="n"/>
       <c r="M30" s="111" t="n"/>
     </row>
-    <row r="31">
+    <row r="31" ht="14.5" customHeight="1" s="59">
       <c r="A31" s="7" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2932,7 +2926,7 @@
       <c r="L31" s="26" t="n"/>
       <c r="M31" s="111" t="n"/>
     </row>
-    <row r="32">
+    <row r="32" ht="14.5" customHeight="1" s="59">
       <c r="A32" s="7" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2959,7 +2953,7 @@
       <c r="L32" s="26" t="n"/>
       <c r="M32" s="111" t="n"/>
     </row>
-    <row r="33">
+    <row r="33" ht="14.5" customHeight="1" s="59">
       <c r="A33" s="7" t="inlineStr">
         <is>
           <t>Felix Myrheim</t>
@@ -2986,7 +2980,7 @@
       <c r="L33" s="26" t="n"/>
       <c r="M33" s="111" t="n"/>
     </row>
-    <row r="34">
+    <row r="34" ht="14.5" customHeight="1" s="59">
       <c r="A34" s="110">
         <f>'Platschef, trädbesiktare'!A34:C34</f>
         <v/>
@@ -3008,7 +3002,7 @@
       <c r="L34" s="26" t="n"/>
       <c r="M34" s="111" t="n"/>
     </row>
-    <row r="35">
+    <row r="35" ht="14.5" customHeight="1" s="59">
       <c r="A35" s="110">
         <f>'Platschef, trädbesiktare'!A35:C35</f>
         <v/>
@@ -3039,7 +3033,7 @@
       <c r="L35" s="26" t="n"/>
       <c r="M35" s="111" t="n"/>
     </row>
-    <row r="36">
+    <row r="36" ht="14.5" customHeight="1" s="59">
       <c r="A36" s="112" t="n"/>
       <c r="B36" s="93" t="n"/>
       <c r="C36" s="93" t="n"/>
@@ -3064,7 +3058,7 @@
       </c>
       <c r="M36" s="113" t="n"/>
     </row>
-    <row r="37">
+    <row r="37" ht="14.5" customHeight="1" s="59">
       <c r="A37" s="11" t="inlineStr">
         <is>
           <t>Arbetsuppgifter Avvikelser</t>
@@ -3083,7 +3077,7 @@
       <c r="L37" s="93" t="n"/>
       <c r="M37" s="94" t="n"/>
     </row>
-    <row r="38" ht="1.5" customHeight="1" s="64">
+    <row r="38" ht="1.5" customHeight="1" s="59">
       <c r="A38" s="115" t="n"/>
       <c r="B38" s="90" t="n"/>
       <c r="C38" s="90" t="n"/>
@@ -3098,23 +3092,23 @@
       <c r="L38" s="90" t="n"/>
       <c r="M38" s="91" t="n"/>
     </row>
-    <row r="39">
+    <row r="39" ht="14.5" customHeight="1" s="59">
       <c r="A39" s="95" t="n"/>
       <c r="M39" s="96" t="n"/>
     </row>
-    <row r="40">
+    <row r="40" ht="14.5" customHeight="1" s="59">
       <c r="A40" s="95" t="n"/>
       <c r="M40" s="96" t="n"/>
     </row>
-    <row r="41">
+    <row r="41" ht="14.5" customHeight="1" s="59">
       <c r="A41" s="95" t="n"/>
       <c r="M41" s="96" t="n"/>
     </row>
-    <row r="42">
+    <row r="42" ht="14.5" customHeight="1" s="59">
       <c r="A42" s="95" t="n"/>
       <c r="M42" s="96" t="n"/>
     </row>
-    <row r="43">
+    <row r="43" ht="14.5" customHeight="1" s="59">
       <c r="A43" s="97" t="n"/>
       <c r="B43" s="98" t="n"/>
       <c r="C43" s="98" t="n"/>
@@ -3129,7 +3123,7 @@
       <c r="L43" s="98" t="n"/>
       <c r="M43" s="99" t="n"/>
     </row>
-    <row r="44" ht="9.75" customHeight="1" s="64">
+    <row r="44" ht="9.75" customHeight="1" s="59">
       <c r="A44" s="116" t="inlineStr">
         <is>
           <t>Delgivning Dagbok Platschef / arbetsledare</t>
@@ -3152,7 +3146,7 @@
       <c r="L44" s="93" t="n"/>
       <c r="M44" s="94" t="n"/>
     </row>
-    <row r="45" ht="24" customHeight="1" s="64">
+    <row r="45" ht="24" customHeight="1" s="59">
       <c r="A45" s="117" t="n"/>
       <c r="B45" s="93" t="n"/>
       <c r="C45" s="93" t="n"/>
@@ -3171,76 +3165,76 @@
   <mergeCells count="72">
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="G45:M45"/>
     <mergeCell ref="D37:M37"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="A12:B13"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="H29:I29"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="A14:B15"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="G44:M44"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C6:K7"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="C6:K7"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="M28:M36"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="C14:K15"/>
+    <mergeCell ref="A10:B11"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="A35:C35"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C4:K5"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C4:K5"/>
-    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="C10:K11"/>
     <mergeCell ref="C16:K17"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="A31:C31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A34:C34"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="C12:K13"/>
     <mergeCell ref="A16:B17"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="A6:B7"/>
     <mergeCell ref="A36:I36"/>
-    <mergeCell ref="A1:C3"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="A38:M43"/>
     <mergeCell ref="C8:K9"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
